--- a/top_paragraphs.xlsx
+++ b/top_paragraphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C54CD1-D586-4FD2-A237-1CFE577309E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD3CAA6-2760-442D-8E51-29C24B8C13D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12648" yWindow="936" windowWidth="13512" windowHeight="11052" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1068" windowWidth="13512" windowHeight="11052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MACH" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7600" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7600" uniqueCount="1060">
   <si>
     <t>Risk Management System</t>
   </si>
@@ -5912,6 +5912,11 @@
     <t xml:space="preserve">1. The Agency shall assist the Commission in monitoring the application by the Member States of this Regulation and of the delegated and implementing acts adopted on the basis thereof by conducting inspections and other monitoring activities. Those inspections and other monitoring activities shall also aim to assist the Member States in ensuring the uniform application of this Regulation and of the delegated and implementing acts adopted on the basis thereof and in sharing best practices.
 The Agency shall report to the Commission on the inspections and other monitoring activities conducted pursuant to this paragraph.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. When designing Eudamed the Commission shall give due consideration to compatibility with national databases and national web-interfaces to allow for import and export of data.
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6285,7 +6290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -9577,8 +9582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9815,7 +9820,7 @@
         <v>253</v>
       </c>
       <c r="D14" t="s">
-        <v>622</v>
+        <v>1059</v>
       </c>
       <c r="E14">
         <v>0.42628875795700383</v>
